--- a/outputs/CoefRoW/CoefRoW_2015__pxp__MTOC__all_stressors.xlsx
+++ b/outputs/CoefRoW/CoefRoW_2015__pxp__MTOC__all_stressors.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GHG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GHG_relat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GES_MatMat" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GES_MatMat_relat" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Materials" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Materials_relat" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="unit" sheetId="5" state="visible" r:id="rId5"/>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5033.208361405192</v>
+        <v>4966.981928388906</v>
       </c>
       <c r="C2" t="n">
-        <v>4843.156549117238</v>
+        <v>4767.38248752602</v>
       </c>
       <c r="D2" t="n">
-        <v>4726.581056594356</v>
+        <v>4665.768936568786</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1142.608896898229</v>
+        <v>1094.004986181655</v>
       </c>
       <c r="C3" t="n">
-        <v>1140.47402668134</v>
+        <v>1092.108038194065</v>
       </c>
       <c r="D3" t="n">
-        <v>1139.678113466893</v>
+        <v>1091.224956457157</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>781.5288117501879</v>
+        <v>742.8800315016192</v>
       </c>
       <c r="C4" t="n">
-        <v>795.0497370253779</v>
+        <v>755.4558413945919</v>
       </c>
       <c r="D4" t="n">
-        <v>762.6301483916025</v>
+        <v>721.2351651347742</v>
       </c>
     </row>
     <row r="5">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>603.957601886378</v>
+        <v>578.9130091173902</v>
       </c>
       <c r="C5" t="n">
-        <v>594.5741375315661</v>
+        <v>565.0625141910112</v>
       </c>
       <c r="D5" t="n">
-        <v>585.1814337439084</v>
+        <v>558.0175807597042</v>
       </c>
     </row>
     <row r="6">
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498.3259445427063</v>
+        <v>485.9215910942326</v>
       </c>
       <c r="C6" t="n">
-        <v>480.6838548910653</v>
+        <v>468.1985069762046</v>
       </c>
       <c r="D6" t="n">
-        <v>429.8224225250876</v>
+        <v>419.6662117810915</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.37775687595344</v>
+        <v>53.97126655550162</v>
       </c>
       <c r="C7" t="n">
-        <v>62.83932338244883</v>
+        <v>54.4389633696403</v>
       </c>
       <c r="D7" t="n">
-        <v>57.54467142076769</v>
+        <v>52.18603345222927</v>
       </c>
     </row>
     <row r="8">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2017.933761038726</v>
+        <v>1974.535586550068</v>
       </c>
       <c r="C8" t="n">
-        <v>1965.823974825603</v>
+        <v>1917.876371879472</v>
       </c>
       <c r="D8" t="n">
-        <v>1789.238642956227</v>
+        <v>1754.477307916537</v>
       </c>
     </row>
     <row r="9">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1423.325872201793</v>
+        <v>1250.120939385331</v>
       </c>
       <c r="C9" t="n">
-        <v>1450.896444565832</v>
+        <v>1327.189284373334</v>
       </c>
       <c r="D9" t="n">
-        <v>1203.773805952763</v>
+        <v>999.6328179621531</v>
       </c>
     </row>
     <row r="10">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3948.585656023441</v>
+        <v>3922.25116901598</v>
       </c>
       <c r="C10" t="n">
-        <v>3941.167257817346</v>
+        <v>3917.141403408983</v>
       </c>
       <c r="D10" t="n">
-        <v>3052.598774889806</v>
+        <v>3022.303072383476</v>
       </c>
     </row>
     <row r="11">
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.250577401981</v>
+        <v>117.0164913710861</v>
       </c>
       <c r="C11" t="n">
-        <v>158.0333201885315</v>
+        <v>114.4912955930096</v>
       </c>
       <c r="D11" t="n">
-        <v>134.6886872201134</v>
+        <v>94.57357919929264</v>
       </c>
     </row>
     <row r="12">
@@ -626,13 +626,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3204.270168649425</v>
+        <v>3127.005087334571</v>
       </c>
       <c r="C12" t="n">
-        <v>3131.089100410611</v>
+        <v>3054.128708864487</v>
       </c>
       <c r="D12" t="n">
-        <v>3129.350569526347</v>
+        <v>3052.098027716202</v>
       </c>
     </row>
     <row r="13">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.2438796894976</v>
+        <v>139.7127140907495</v>
       </c>
       <c r="C13" t="n">
-        <v>143.5831094505988</v>
+        <v>140.4871024939805</v>
       </c>
       <c r="D13" t="n">
-        <v>127.6588196843554</v>
+        <v>124.1267702401834</v>
       </c>
     </row>
     <row r="14">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>475.565259035867</v>
+        <v>474.0864058371106</v>
       </c>
       <c r="C14" t="n">
-        <v>425.3465974712296</v>
+        <v>423.8696251914909</v>
       </c>
       <c r="D14" t="n">
-        <v>424.4121770968912</v>
+        <v>422.7356705264065</v>
       </c>
     </row>
     <row r="15">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.9312682397677</v>
+        <v>585.7169567712652</v>
       </c>
       <c r="C15" t="n">
-        <v>455.7429603554328</v>
+        <v>438.2658268983681</v>
       </c>
       <c r="D15" t="n">
-        <v>452.8623662385717</v>
+        <v>435.9666345675565</v>
       </c>
     </row>
     <row r="16">
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.8722343394104</v>
+        <v>37.79463986777832</v>
       </c>
       <c r="C16" t="n">
-        <v>37.31917433718506</v>
+        <v>35.22932991406334</v>
       </c>
       <c r="D16" t="n">
-        <v>37.31842300503227</v>
+        <v>35.22860051853031</v>
       </c>
     </row>
     <row r="17">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.5701660514125</v>
+        <v>338.4730934710624</v>
       </c>
       <c r="C17" t="n">
-        <v>388.2998435838518</v>
+        <v>386.6485779920403</v>
       </c>
       <c r="D17" t="n">
-        <v>257.1887465827427</v>
+        <v>254.2558867371705</v>
       </c>
     </row>
     <row r="18">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1102565.255198712</v>
+        <v>1034676.063359425</v>
       </c>
       <c r="C18" t="n">
-        <v>1125181.394121974</v>
+        <v>1060913.525597492</v>
       </c>
       <c r="D18" t="n">
-        <v>1095544.268875192</v>
+        <v>1026608.225303285</v>
       </c>
     </row>
     <row r="19">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3617.208663402311</v>
+        <v>3587.414923088296</v>
       </c>
       <c r="C19" t="n">
-        <v>3617.083219947991</v>
+        <v>3587.288842855161</v>
       </c>
       <c r="D19" t="n">
-        <v>3617.01299431062</v>
+        <v>3587.219631947427</v>
       </c>
     </row>
     <row r="20">
@@ -754,13 +754,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>619.108860223128</v>
+        <v>589.5218987774031</v>
       </c>
       <c r="C20" t="n">
-        <v>521.6005171715482</v>
+        <v>488.6721913040916</v>
       </c>
       <c r="D20" t="n">
-        <v>521.5728591287731</v>
+        <v>488.6456590951301</v>
       </c>
     </row>
     <row r="21">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50846.04719519676</v>
+        <v>48729.63669165918</v>
       </c>
       <c r="C21" t="n">
-        <v>53179.82809745271</v>
+        <v>50891.48830327684</v>
       </c>
       <c r="D21" t="n">
-        <v>50368.72918770723</v>
+        <v>48286.69798509983</v>
       </c>
     </row>
     <row r="22">
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.5441580664002</v>
+        <v>859.2427913572603</v>
       </c>
       <c r="C22" t="n">
-        <v>971.0794504959517</v>
+        <v>962.6960994092558</v>
       </c>
       <c r="D22" t="n">
-        <v>650.2022922974143</v>
+        <v>639.934853286775</v>
       </c>
     </row>
     <row r="23">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>125.6630615689643</v>
+        <v>71.31965366570938</v>
       </c>
       <c r="C23" t="n">
-        <v>127.1318434095781</v>
+        <v>67.06001944128442</v>
       </c>
       <c r="D23" t="n">
-        <v>119.2123368178774</v>
+        <v>63.26988912608554</v>
       </c>
     </row>
     <row r="24">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35.05368503352509</v>
+        <v>16.43403663853669</v>
       </c>
       <c r="C24" t="n">
-        <v>33.37242481493731</v>
+        <v>12.95217183247159</v>
       </c>
       <c r="D24" t="n">
-        <v>32.80828062731398</v>
+        <v>14.41447252210898</v>
       </c>
     </row>
     <row r="25">
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.59042745766638</v>
+        <v>49.12546771978806</v>
       </c>
       <c r="C25" t="n">
-        <v>54.98187983514472</v>
+        <v>43.75988716040118</v>
       </c>
       <c r="D25" t="n">
-        <v>51.16962392002589</v>
+        <v>39.44178225683224</v>
       </c>
     </row>
     <row r="26">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>438.5068962714568</v>
+        <v>405.4751405138466</v>
       </c>
       <c r="C26" t="n">
-        <v>417.1657285965133</v>
+        <v>381.8014420840094</v>
       </c>
       <c r="D26" t="n">
-        <v>342.9287135465496</v>
+        <v>305.6392927260299</v>
       </c>
     </row>
     <row r="27">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.9655730717866</v>
+        <v>889.9758743655789</v>
       </c>
       <c r="C28" t="n">
-        <v>889.4975826284834</v>
+        <v>825.7401877754966</v>
       </c>
       <c r="D28" t="n">
-        <v>865.0977587168453</v>
+        <v>798.1472144559334</v>
       </c>
     </row>
     <row r="29">
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1875.562789688263</v>
+        <v>1788.300257657029</v>
       </c>
       <c r="C30" t="n">
-        <v>1612.910466378596</v>
+        <v>1528.975764741432</v>
       </c>
       <c r="D30" t="n">
-        <v>1611.786729205527</v>
+        <v>1527.892853260689</v>
       </c>
     </row>
     <row r="31">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1106.68107190312</v>
+        <v>1035.231680049571</v>
       </c>
       <c r="C32" t="n">
-        <v>1046.067543770904</v>
+        <v>971.7096653735323</v>
       </c>
       <c r="D32" t="n">
-        <v>994.5810491969028</v>
+        <v>918.0340248363159</v>
       </c>
     </row>
     <row r="33">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>805.269902001295</v>
+        <v>755.9528184893667</v>
       </c>
       <c r="C34" t="n">
-        <v>714.9155809711422</v>
+        <v>662.0065881349045</v>
       </c>
       <c r="D34" t="n">
-        <v>708.9089994275834</v>
+        <v>656.3122659422753</v>
       </c>
     </row>
     <row r="35">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6396.967819148008</v>
+        <v>5048.969048379146</v>
       </c>
       <c r="C36" t="n">
-        <v>6387.348559132314</v>
+        <v>4995.62383503705</v>
       </c>
       <c r="D36" t="n">
-        <v>5707.378422989324</v>
+        <v>4469.511571342237</v>
       </c>
     </row>
     <row r="37">
@@ -1024,13 +1024,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5904.659625319286</v>
+        <v>5652.675887698159</v>
       </c>
       <c r="C38" t="n">
-        <v>5952.143418497008</v>
+        <v>5685.33706250372</v>
       </c>
       <c r="D38" t="n">
-        <v>5669.923730219156</v>
+        <v>5412.200242379634</v>
       </c>
     </row>
     <row r="39">
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12122.21433480268</v>
+        <v>11566.9995897913</v>
       </c>
       <c r="C40" t="n">
-        <v>12385.09622253811</v>
+        <v>11763.9120788242</v>
       </c>
       <c r="D40" t="n">
-        <v>10754.47049014539</v>
+        <v>10125.92500639324</v>
       </c>
     </row>
     <row r="41">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>793.2542211238734</v>
+        <v>761.4852013015536</v>
       </c>
       <c r="C42" t="n">
-        <v>573.3572079744559</v>
+        <v>539.9360179731593</v>
       </c>
       <c r="D42" t="n">
-        <v>491.6251146193924</v>
+        <v>456.1767783264351</v>
       </c>
     </row>
     <row r="43">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>714.0335257732005</v>
+        <v>672.5973373311197</v>
       </c>
       <c r="C44" t="n">
-        <v>555.5561832456747</v>
+        <v>512.3293479443615</v>
       </c>
       <c r="D44" t="n">
-        <v>555.4091445097843</v>
+        <v>512.1852428599942</v>
       </c>
     </row>
     <row r="45">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1060.065550728212</v>
+        <v>1037.331152892921</v>
       </c>
       <c r="C45" t="n">
-        <v>771.2456043753775</v>
+        <v>746.7054562354862</v>
       </c>
       <c r="D45" t="n">
-        <v>741.7406992029898</v>
+        <v>716.7512553821211</v>
       </c>
     </row>
     <row r="46">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1117.549430668652</v>
+        <v>1091.225547401717</v>
       </c>
       <c r="C46" t="n">
-        <v>1121.100326989502</v>
+        <v>1094.812047817411</v>
       </c>
       <c r="D46" t="n">
-        <v>1063.614543874536</v>
+        <v>1036.708664047006</v>
       </c>
     </row>
     <row r="47">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>730.7566312167933</v>
+        <v>701.0929691720821</v>
       </c>
       <c r="C47" t="n">
-        <v>610.826534676705</v>
+        <v>579.0809172484293</v>
       </c>
       <c r="D47" t="n">
-        <v>610.7089321802645</v>
+        <v>578.9632772773381</v>
       </c>
     </row>
     <row r="48">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>369.0498617167568</v>
+        <v>353.6389053885329</v>
       </c>
       <c r="C48" t="n">
-        <v>327.9061984574053</v>
+        <v>312.065631453687</v>
       </c>
       <c r="D48" t="n">
-        <v>327.6236229213774</v>
+        <v>311.7960622459164</v>
       </c>
     </row>
     <row r="49">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>453.5927945595242</v>
+        <v>437.5366947778657</v>
       </c>
       <c r="C49" t="n">
-        <v>383.3165125595556</v>
+        <v>367.6880228801563</v>
       </c>
       <c r="D49" t="n">
-        <v>383.1107093553566</v>
+        <v>367.5004052654632</v>
       </c>
     </row>
     <row r="50">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1204.460457505969</v>
+        <v>1137.763389222467</v>
       </c>
       <c r="C50" t="n">
-        <v>1069.52290593533</v>
+        <v>996.045169897066</v>
       </c>
       <c r="D50" t="n">
-        <v>999.1629714085449</v>
+        <v>933.0145193237242</v>
       </c>
     </row>
     <row r="51">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>802.7324738575502</v>
+        <v>781.2972755773656</v>
       </c>
       <c r="C51" t="n">
-        <v>690.776905987368</v>
+        <v>669.1540154286415</v>
       </c>
       <c r="D51" t="n">
-        <v>625.9904682582196</v>
+        <v>603.4630796965998</v>
       </c>
     </row>
     <row r="52">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>656.94330264595</v>
+        <v>624.006451459422</v>
       </c>
       <c r="C52" t="n">
-        <v>482.6825273754783</v>
+        <v>447.9779350400833</v>
       </c>
       <c r="D52" t="n">
-        <v>482.463099913412</v>
+        <v>447.8192343253166</v>
       </c>
     </row>
     <row r="53">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>589.6521698120974</v>
+        <v>574.8413175577321</v>
       </c>
       <c r="C53" t="n">
-        <v>513.0343346617541</v>
+        <v>499.9452894423378</v>
       </c>
       <c r="D53" t="n">
-        <v>487.2500585037498</v>
+        <v>474.6851416538975</v>
       </c>
     </row>
     <row r="54">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>492.7611359085098</v>
+        <v>475.6127960834687</v>
       </c>
       <c r="C54" t="n">
-        <v>384.2065479961028</v>
+        <v>367.2802665401421</v>
       </c>
       <c r="D54" t="n">
-        <v>377.7048070503211</v>
+        <v>360.4001961902576</v>
       </c>
     </row>
     <row r="55">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>533.5893903003573</v>
+        <v>516.0549504012225</v>
       </c>
       <c r="C55" t="n">
-        <v>435.7990868043345</v>
+        <v>419.0716661225584</v>
       </c>
       <c r="D55" t="n">
-        <v>395.1785034667103</v>
+        <v>378.4555679534978</v>
       </c>
     </row>
     <row r="56">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1088.184207786156</v>
+        <v>1066.355338589705</v>
       </c>
       <c r="C56" t="n">
-        <v>1089.045478226148</v>
+        <v>1068.131052976916</v>
       </c>
       <c r="D56" t="n">
-        <v>1022.739215497579</v>
+        <v>1001.217745449766</v>
       </c>
     </row>
     <row r="57">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2637.027610481155</v>
+        <v>2573.761285910867</v>
       </c>
       <c r="C57" t="n">
-        <v>2663.551239652505</v>
+        <v>2593.625707159693</v>
       </c>
       <c r="D57" t="n">
-        <v>2420.321033573261</v>
+        <v>2371.054614136185</v>
       </c>
     </row>
     <row r="58">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2230.308418289366</v>
+        <v>2106.413497240027</v>
       </c>
       <c r="C58" t="n">
-        <v>2196.425867595714</v>
+        <v>2075.950727546838</v>
       </c>
       <c r="D58" t="n">
-        <v>2190.93062186126</v>
+        <v>2061.489119174244</v>
       </c>
     </row>
     <row r="59">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2061712058264.162</v>
+        <v>2041389533630.945</v>
       </c>
       <c r="C59" t="n">
-        <v>2096685835925.628</v>
+        <v>2077178960318.217</v>
       </c>
       <c r="D59" t="n">
-        <v>2008137910778.294</v>
+        <v>1986575821645.32</v>
       </c>
     </row>
     <row r="60">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3772608412275305</v>
+        <v>3518901798196429</v>
       </c>
       <c r="C60" t="n">
-        <v>3342362330518766</v>
+        <v>3067976027636538</v>
       </c>
       <c r="D60" t="n">
-        <v>3324491208487481</v>
+        <v>3048830930911532</v>
       </c>
     </row>
     <row r="61">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>36835251860399.72</v>
+        <v>36294220263331.14</v>
       </c>
       <c r="C61" t="n">
-        <v>36776958956538.38</v>
+        <v>36248315824786.33</v>
       </c>
       <c r="D61" t="n">
-        <v>36774813133195.03</v>
+        <v>36246248759667.23</v>
       </c>
     </row>
     <row r="62">
@@ -1428,13 +1428,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.499662700404341e-10</v>
+        <v>2.479673078766012e-10</v>
       </c>
       <c r="C64" t="n">
-        <v>2.499042785710919e-10</v>
+        <v>2.479051160590448e-10</v>
       </c>
       <c r="D64" t="n">
-        <v>2.498952676241895e-10</v>
+        <v>2.478964457896583e-10</v>
       </c>
     </row>
     <row r="65">
@@ -1444,13 +1444,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.311478884473345e-11</v>
+        <v>9.172374879852894e-11</v>
       </c>
       <c r="C65" t="n">
-        <v>9.309395719516529e-11</v>
+        <v>9.170297538295812e-11</v>
       </c>
       <c r="D65" t="n">
-        <v>9.308512717614404e-11</v>
+        <v>9.169430482174958e-11</v>
       </c>
     </row>
     <row r="66">
@@ -1460,13 +1460,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.791819002761117e-09</v>
+        <v>3.755973883936555e-09</v>
       </c>
       <c r="C66" t="n">
-        <v>3.791680724802783e-09</v>
+        <v>3.755834995343408e-09</v>
       </c>
       <c r="D66" t="n">
-        <v>3.791620306384555e-09</v>
+        <v>3.755775690015234e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.597119981793326e-10</v>
+        <v>1.587059051112633e-10</v>
       </c>
       <c r="C67" t="n">
-        <v>1.59692634593091e-10</v>
+        <v>1.586863974640842e-10</v>
       </c>
       <c r="D67" t="n">
-        <v>1.596875454732759e-10</v>
+        <v>1.586815069484638e-10</v>
       </c>
     </row>
     <row r="68">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1.710978777621384e-11</v>
+        <v>-1.649798727925672e-11</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.710037507348181e-11</v>
+        <v>-1.648849048143994e-11</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.709767701313705e-11</v>
+        <v>-1.648590707551874e-11</v>
       </c>
     </row>
     <row r="70">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.692470805169844e-10</v>
+        <v>2.658181788867211e-10</v>
       </c>
       <c r="C71" t="n">
-        <v>2.692186773962311e-10</v>
+        <v>2.657896138885589e-10</v>
       </c>
       <c r="D71" t="n">
-        <v>2.69210692531358e-10</v>
+        <v>2.657819196967262e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>720.023851724046</v>
+        <v>695.1332206975765</v>
       </c>
       <c r="C75" t="n">
-        <v>658.7815636076868</v>
+        <v>637.1317569031706</v>
       </c>
       <c r="D75" t="n">
-        <v>593.2815208477664</v>
+        <v>568.2031339411208</v>
       </c>
     </row>
     <row r="76">
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>595.0748847173375</v>
+        <v>584.1063621758224</v>
       </c>
       <c r="C76" t="n">
-        <v>470.828215339272</v>
+        <v>464.1703146239995</v>
       </c>
       <c r="D76" t="n">
-        <v>462.021813477413</v>
+        <v>455.3649380982216</v>
       </c>
     </row>
     <row r="77">
@@ -1636,13 +1636,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>333.1658471176284</v>
+        <v>327.1891728570237</v>
       </c>
       <c r="C77" t="n">
-        <v>290.4291463686295</v>
+        <v>284.1824885720476</v>
       </c>
       <c r="D77" t="n">
-        <v>289.5634392290208</v>
+        <v>283.4445019300505</v>
       </c>
     </row>
     <row r="78">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2380.461069636859</v>
+        <v>2373.78708611025</v>
       </c>
       <c r="C78" t="n">
-        <v>2349.876891693924</v>
+        <v>2344.201187406768</v>
       </c>
       <c r="D78" t="n">
-        <v>2181.11417032637</v>
+        <v>2174.415062223743</v>
       </c>
     </row>
     <row r="79">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1405.405453200447</v>
+        <v>1397.561874440991</v>
       </c>
       <c r="C79" t="n">
-        <v>1297.000999102429</v>
+        <v>1290.072657743466</v>
       </c>
       <c r="D79" t="n">
-        <v>1278.926523280563</v>
+        <v>1271.987946084003</v>
       </c>
     </row>
     <row r="80">
@@ -1684,13 +1684,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>828.1040911028495</v>
+        <v>792.7294424048675</v>
       </c>
       <c r="C80" t="n">
-        <v>592.2045082292706</v>
+        <v>552.1619089566591</v>
       </c>
       <c r="D80" t="n">
-        <v>552.0435173145559</v>
+        <v>511.8713891999527</v>
       </c>
     </row>
     <row r="81">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1050.573913760946</v>
+        <v>990.8748761927849</v>
       </c>
       <c r="C81" t="n">
-        <v>857.4343936676908</v>
+        <v>795.9432399873438</v>
       </c>
       <c r="D81" t="n">
-        <v>716.655355506444</v>
+        <v>649.6626207567903</v>
       </c>
     </row>
     <row r="82">
@@ -1716,13 +1716,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8673.567385580252</v>
+        <v>8516.921571694233</v>
       </c>
       <c r="C82" t="n">
-        <v>6445.817413629655</v>
+        <v>6260.841119098978</v>
       </c>
       <c r="D82" t="n">
-        <v>6445.776482430674</v>
+        <v>6260.801670368836</v>
       </c>
     </row>
     <row r="83">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1609.919127259192</v>
+        <v>972.8792649352929</v>
       </c>
       <c r="C83" t="n">
-        <v>1680.697232980667</v>
+        <v>1006.729740247847</v>
       </c>
       <c r="D83" t="n">
-        <v>1353.262652327397</v>
+        <v>847.4193375816487</v>
       </c>
     </row>
     <row r="84">
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>194.2953271112772</v>
+        <v>188.8852232886891</v>
       </c>
       <c r="C84" t="n">
-        <v>172.6763039478557</v>
+        <v>166.7902917921076</v>
       </c>
       <c r="D84" t="n">
-        <v>165.4904907441523</v>
+        <v>159.6444005879216</v>
       </c>
     </row>
     <row r="85">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>272.2203646231584</v>
+        <v>265.7361734470447</v>
       </c>
       <c r="C85" t="n">
-        <v>199.9262540943442</v>
+        <v>193.1759225535672</v>
       </c>
       <c r="D85" t="n">
-        <v>195.7369798194515</v>
+        <v>189.5719276406373</v>
       </c>
     </row>
     <row r="86">
@@ -1780,13 +1780,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>193.6628924431747</v>
+        <v>189.5636115747664</v>
       </c>
       <c r="C86" t="n">
-        <v>156.7710304792783</v>
+        <v>152.4424410986166</v>
       </c>
       <c r="D86" t="n">
-        <v>156.2975351432599</v>
+        <v>152.0430745182907</v>
       </c>
     </row>
     <row r="87">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>241.1459651537097</v>
+        <v>235.9067388367936</v>
       </c>
       <c r="C87" t="n">
-        <v>202.1465677184596</v>
+        <v>196.7078054968721</v>
       </c>
       <c r="D87" t="n">
-        <v>185.7217590541097</v>
+        <v>180.5098572254855</v>
       </c>
     </row>
     <row r="88">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>286.0309530608287</v>
+        <v>278.3383954116362</v>
       </c>
       <c r="C88" t="n">
-        <v>255.4116340930221</v>
+        <v>247.1299022604411</v>
       </c>
       <c r="D88" t="n">
-        <v>245.1015298085763</v>
+        <v>237.229495626025</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03775957573012023</v>
+        <v>-0.04018525610533641</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06092084467674008</v>
+        <v>-0.06064306175517387</v>
       </c>
     </row>
     <row r="3">
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001868417288438562</v>
+        <v>-0.001733948210063008</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00256499265784782</v>
+        <v>-0.002541149043754354</v>
       </c>
     </row>
     <row r="4">
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0173006101271056</v>
+        <v>0.01692845326257131</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02418165917167259</v>
+        <v>-0.02913642236835101</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01553662761343511</v>
+        <v>-0.02392500204390868</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03108855337497995</v>
+        <v>-0.03609424564416519</v>
       </c>
     </row>
     <row r="6">
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03540271150808827</v>
+        <v>-0.03647313567219324</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1374672998021037</v>
+        <v>-0.1363499390178209</v>
       </c>
     </row>
     <row r="7">
@@ -1952,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02381264127083149</v>
+        <v>0.008665663120166478</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.06245072564206844</v>
+        <v>-0.03307747283337326</v>
       </c>
     </row>
     <row r="8">
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02582333831725925</v>
+        <v>-0.02869495746571549</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1133313305411862</v>
+        <v>-0.1114481198173893</v>
       </c>
     </row>
     <row r="9">
@@ -1984,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01937052708905584</v>
+        <v>0.06164871138459294</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1542528457726949</v>
+        <v>-0.2003711109313473</v>
       </c>
     </row>
     <row r="10">
@@ -2000,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.001878748203113512</v>
+        <v>-0.001302763486275893</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2269133708083136</v>
+        <v>-0.2294468298567132</v>
       </c>
     </row>
     <row r="11">
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02452336224773166</v>
+        <v>-0.02157982818052928</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1268189105761904</v>
+        <v>-0.1917927286045675</v>
       </c>
     </row>
     <row r="12">
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02283860735427934</v>
+        <v>-0.0233054876582256</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02338117423932973</v>
+        <v>-0.02395488895165809</v>
       </c>
     </row>
     <row r="13">
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002368197244004611</v>
+        <v>0.00554271963200148</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1088008788851931</v>
+        <v>-0.1115570902190213</v>
       </c>
     </row>
     <row r="14">
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1055978345988682</v>
+        <v>-0.1059232663652319</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1075626971631202</v>
+        <v>-0.1083151397687354</v>
       </c>
     </row>
     <row r="15">
@@ -2080,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2466202620314931</v>
+        <v>-0.2517446834486644</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2513821155975074</v>
+        <v>-0.2556701158682511</v>
       </c>
     </row>
     <row r="16">
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.08693089721300995</v>
+        <v>-0.06787496752686417</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.08694927967154054</v>
+        <v>-0.06789426644161967</v>
       </c>
     </row>
     <row r="17">
@@ -2112,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1368084281851643</v>
+        <v>0.1423317996326841</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2470397823209445</v>
+        <v>-0.2488150708531637</v>
       </c>
     </row>
     <row r="18">
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02051229060286919</v>
+        <v>0.02535814170947126</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.006367864659634015</v>
+        <v>-0.007797453079126826</v>
       </c>
     </row>
     <row r="19">
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.467962896053223e-05</v>
+        <v>-3.514514931723944e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.409394643751675e-05</v>
+        <v>-5.44378459295114e-05</v>
       </c>
     </row>
     <row r="20">
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1574978962769772</v>
+        <v>-0.1710703328959645</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1575425702342602</v>
+        <v>-0.1711153392121277</v>
       </c>
     </row>
     <row r="21">
@@ -2176,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04589896424586604</v>
+        <v>0.04436420540741892</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.009387514542814057</v>
+        <v>-0.009089719042275846</v>
       </c>
     </row>
     <row r="22">
@@ -2192,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1167684142175538</v>
+        <v>0.1204005539442241</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2522492546631961</v>
+        <v>-0.2552339574755887</v>
       </c>
     </row>
     <row r="23">
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01168825446615207</v>
+        <v>-0.05972595218129895</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.05133349984113444</v>
+        <v>-0.1128688114128377</v>
       </c>
     </row>
     <row r="24">
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0479624386702806</v>
+        <v>-0.2118691154612837</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.06405615854834146</v>
+        <v>-0.1228891087958247</v>
       </c>
     </row>
     <row r="25">
@@ -2240,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.07733704588368029</v>
+        <v>-0.1092219740276503</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1413113464175552</v>
+        <v>-0.1971214914062827</v>
       </c>
     </row>
     <row r="26">
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.04866780398758475</v>
+        <v>-0.05838507978525176</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2179627812871149</v>
+        <v>-0.2462194048722631</v>
       </c>
     </row>
     <row r="27">
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.06660050712925603</v>
+        <v>-0.07217688528452859</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.09220460511674977</v>
+        <v>-0.1031810665374561</v>
       </c>
     </row>
     <row r="29">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1400392057006647</v>
+        <v>-0.1450117181414241</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1406383523564032</v>
+        <v>-0.1456172716417972</v>
       </c>
     </row>
     <row r="31">
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.05477054742427312</v>
+        <v>-0.06136019202290766</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.101293882720378</v>
+        <v>-0.1132091081366863</v>
       </c>
     </row>
     <row r="33">
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1122037726799424</v>
+        <v>-0.1242752564137487</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1196628637606236</v>
+        <v>-0.1318078987339512</v>
       </c>
     </row>
     <row r="35">
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.001503721808151059</v>
+        <v>-0.01056556553049626</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1077994161694139</v>
+        <v>-0.1147674845071451</v>
       </c>
     </row>
     <row r="37">
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00804174943024849</v>
+        <v>0.005778002392926807</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.03975434825973334</v>
+        <v>-0.04254191290922416</v>
       </c>
     </row>
     <row r="39">
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02168596268593492</v>
+        <v>0.01702364450731797</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1128295381422618</v>
+        <v>-0.1245849947699409</v>
       </c>
     </row>
     <row r="41">
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2772087526214106</v>
+        <v>-0.2909435179432451</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3802426743814062</v>
+        <v>-0.4009380910532155</v>
       </c>
     </row>
     <row r="43">
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2219466408890485</v>
+        <v>-0.2382822239866499</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2221525678246656</v>
+        <v>-0.238496475629303</v>
       </c>
     </row>
     <row r="45">
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.2724547988135543</v>
+        <v>-0.2801667489180623</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.3002878938067075</v>
+        <v>-0.3090429672499115</v>
       </c>
     </row>
     <row r="46">
@@ -2576,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00317739531102923</v>
+        <v>0.00328667196642618</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.04826174602571787</v>
+        <v>-0.04995931728735636</v>
       </c>
     </row>
     <row r="47">
@@ -2592,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1641176985837145</v>
+        <v>-0.1740312016931741</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1642786310904023</v>
+        <v>-0.1741989968020455</v>
       </c>
     </row>
     <row r="48">
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1114853777968058</v>
+        <v>-0.1175585414991897</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1122510616930503</v>
+        <v>-0.1183208139857942</v>
       </c>
     </row>
     <row r="49">
@@ -2624,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.1549325360607031</v>
+        <v>-0.1596407175246662</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1553862540356521</v>
+        <v>-0.1600695218213856</v>
       </c>
     </row>
     <row r="50">
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1120315330650611</v>
+        <v>-0.1245586038958851</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.1704476762338264</v>
+        <v>-0.1799573372093346</v>
       </c>
     </row>
     <row r="51">
@@ -2656,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1394680936877725</v>
+        <v>-0.143534687313292</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2201754773293181</v>
+        <v>-0.2276139971809696</v>
       </c>
     </row>
     <row r="52">
@@ -2672,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.2652599921006987</v>
+        <v>-0.2820940649053298</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2655940048856418</v>
+        <v>-0.2823483903444266</v>
       </c>
     </row>
     <row r="53">
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1299373411527662</v>
+        <v>-0.1302899179787513</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1736652836213251</v>
+        <v>-0.1742327366608886</v>
       </c>
     </row>
     <row r="54">
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.2202985990611122</v>
+        <v>-0.2277746318757884</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2334931074587647</v>
+        <v>-0.2422403283552351</v>
       </c>
     </row>
     <row r="55">
@@ -2720,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1832688304409064</v>
+        <v>-0.1879320878585924</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2593958750861511</v>
+        <v>-0.2666370748710846</v>
       </c>
     </row>
     <row r="56">
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0007914748567654506</v>
+        <v>0.001665218265386015</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.06014146485521987</v>
+        <v>-0.06108432225423599</v>
       </c>
     </row>
     <row r="57">
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01005815375839436</v>
+        <v>0.007718051148553506</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.08217834961096715</v>
+        <v>-0.07875892487944647</v>
       </c>
     </row>
     <row r="58">
@@ -2768,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.01519186782231641</v>
+        <v>-0.01446191345293957</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01765576281073644</v>
+        <v>-0.02132742603702698</v>
       </c>
     </row>
     <row r="59">
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01696346370060642</v>
+        <v>0.01753189486751916</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02598527145006546</v>
+        <v>-0.02685117714311469</v>
       </c>
     </row>
     <row r="60">
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1140447231036766</v>
+        <v>-0.1281438915945332</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1187817962579264</v>
+        <v>-0.1335845369500865</v>
       </c>
     </row>
     <row r="61">
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.001582530345720534</v>
+        <v>-0.001264786464945655</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.001640784958760189</v>
+        <v>-0.00132173947575831</v>
       </c>
     </row>
     <row r="62">
@@ -2832,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.09745796187278077</v>
+        <v>-0.0995205450312252</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.0975534539784092</v>
+        <v>-0.09961384606651758</v>
       </c>
     </row>
     <row r="63">
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.000247999337399718</v>
+        <v>-0.0002508065199764431</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0002840479886871972</v>
+        <v>-0.0002857718928748199</v>
       </c>
     </row>
     <row r="65">
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.0002237200967387665</v>
+        <v>-0.0002264780478655748</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.0003185494909822006</v>
+        <v>-0.0003210071237279566</v>
       </c>
     </row>
     <row r="66">
@@ -2896,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.646744695184889e-05</v>
+        <v>-3.697805081681604e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>-5.240133466755115e-05</v>
+        <v>-5.276765159867303e-05</v>
       </c>
     </row>
     <row r="67">
@@ -2912,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.0001212406485571194</v>
+        <v>-0.0001229169586696166</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0001531050036029935</v>
+        <v>-0.0001537319155354711</v>
       </c>
     </row>
     <row r="68">
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.0005501355630553872</v>
+        <v>-0.0005756337216187291</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.0007078266098436981</v>
+        <v>-0.0007322228786764695</v>
       </c>
     </row>
     <row r="70">
@@ -2976,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.0001054909145112859</v>
+        <v>-0.000107460664586112</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.0001351471873212162</v>
+        <v>-0.0001364059830174513</v>
       </c>
     </row>
     <row r="72">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.0850559158140648</v>
+        <v>-0.0834393495626643</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1760251838502351</v>
+        <v>-0.1825982171145256</v>
       </c>
     </row>
     <row r="76">
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.2087916539060172</v>
+        <v>-0.2053325478343629</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.2235904667748246</v>
+        <v>-0.2204075018084604</v>
       </c>
     </row>
     <row r="77">
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1282745549063141</v>
+        <v>-0.1314428711361096</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.1308729819272656</v>
+        <v>-0.1336984061697202</v>
       </c>
     </row>
     <row r="78">
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.01284800593172475</v>
+        <v>-0.0124635856672225</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.08374297813696185</v>
+        <v>-0.08398900855645075</v>
       </c>
     </row>
     <row r="79">
@@ -3104,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.0771339358696489</v>
+        <v>-0.07691195550144736</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.08999462015168769</v>
+        <v>-0.08985214225825633</v>
       </c>
     </row>
     <row r="80">
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.2848670661189626</v>
+        <v>-0.3034673882155928</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.3333645815233718</v>
+        <v>-0.3542924460492958</v>
       </c>
     </row>
     <row r="81">
@@ -3136,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.183841914941363</v>
+        <v>-0.1967267925435977</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.3178439459429444</v>
+        <v>-0.3443545331848825</v>
       </c>
     </row>
     <row r="82">
@@ -3152,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.2568435653885871</v>
+        <v>-0.2648938860835914</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.256848284461739</v>
+        <v>-0.2648985178897915</v>
       </c>
     </row>
     <row r="83">
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04396376471529417</v>
+        <v>0.03479411735104176</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1594219675920866</v>
+        <v>-0.1289573453515722</v>
       </c>
     </row>
     <row r="84">
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1112688785924318</v>
+        <v>-0.1169754367858195</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.1482528519619399</v>
+        <v>-0.1548073596846494</v>
       </c>
     </row>
     <row r="85">
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.2655720141617353</v>
+        <v>-0.2730537207345507</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.2809612899813163</v>
+        <v>-0.2866160252796188</v>
       </c>
     </row>
     <row r="86">
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.1904952544004854</v>
+        <v>-0.1958243471295581</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1929402005130058</v>
+        <v>-0.1979311152851566</v>
       </c>
     </row>
     <row r="87">
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1617252746086438</v>
+        <v>-0.1661628384725389</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.229836754947452</v>
+        <v>-0.2348253461705183</v>
       </c>
     </row>
     <row r="88">
@@ -3248,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1070489701906316</v>
+        <v>-0.1121242834824877</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1430943847659315</v>
+        <v>-0.1476939598103776</v>
       </c>
     </row>
   </sheetData>
@@ -6119,7 +6119,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>GES</t>
+          <t>GES_MatMat</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
